--- a/data/raw/election/voters-age-sex-education/2023/Bolu.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Bolu.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="38">
   <si>
     <t>Bolu</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>Yeniçağa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -660,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -674,11 +681,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1008,10 +1024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110:K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,48 +1046,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1125,14 +1141,14 @@
       <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="4">
-        <v>1.5489999999999999</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6.7590000000000003</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.341</v>
+      <c r="G6" s="5">
+        <v>1549</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6759</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1341</v>
       </c>
       <c r="J6" s="4">
         <v>21</v>
@@ -1143,8 +1159,8 @@
       <c r="L6" s="4">
         <v>52</v>
       </c>
-      <c r="M6" s="5">
-        <v>9.7560000000000002</v>
+      <c r="M6" s="6">
+        <v>9756</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1164,14 +1180,14 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>1.196</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.1480000000000001</v>
+      <c r="G7" s="5">
+        <v>1196</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6500</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2148</v>
       </c>
       <c r="J7" s="4">
         <v>35</v>
@@ -1182,8 +1198,8 @@
       <c r="L7" s="4">
         <v>26</v>
       </c>
-      <c r="M7" s="5">
-        <v>9.9429999999999996</v>
+      <c r="M7" s="6">
+        <v>9943</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1208,11 +1224,11 @@
       <c r="G8" s="4">
         <v>815</v>
       </c>
-      <c r="H8" s="4">
-        <v>3.0449999999999999</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3.0870000000000002</v>
+      <c r="H8" s="5">
+        <v>3045</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3087</v>
       </c>
       <c r="J8" s="4">
         <v>292</v>
@@ -1223,8 +1239,8 @@
       <c r="L8" s="4">
         <v>44</v>
       </c>
-      <c r="M8" s="5">
-        <v>7.3360000000000003</v>
+      <c r="M8" s="6">
+        <v>7336</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1247,11 +1263,11 @@
       <c r="G9" s="4">
         <v>839</v>
       </c>
-      <c r="H9" s="4">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4.1420000000000003</v>
+      <c r="H9" s="5">
+        <v>2006</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4142</v>
       </c>
       <c r="J9" s="4">
         <v>481</v>
@@ -1262,8 +1278,8 @@
       <c r="L9" s="4">
         <v>26</v>
       </c>
-      <c r="M9" s="5">
-        <v>7.6360000000000001</v>
+      <c r="M9" s="6">
+        <v>7636</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1288,11 +1304,11 @@
       <c r="G10" s="4">
         <v>412</v>
       </c>
-      <c r="H10" s="4">
-        <v>2.8780000000000001</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2.7269999999999999</v>
+      <c r="H10" s="5">
+        <v>2878</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2727</v>
       </c>
       <c r="J10" s="4">
         <v>460</v>
@@ -1303,8 +1319,8 @@
       <c r="L10" s="4">
         <v>39</v>
       </c>
-      <c r="M10" s="5">
-        <v>7.0990000000000002</v>
+      <c r="M10" s="6">
+        <v>7099</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1327,11 +1343,11 @@
       <c r="G11" s="4">
         <v>430</v>
       </c>
-      <c r="H11" s="4">
-        <v>2.125</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3.2679999999999998</v>
+      <c r="H11" s="5">
+        <v>2125</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3268</v>
       </c>
       <c r="J11" s="4">
         <v>485</v>
@@ -1342,8 +1358,8 @@
       <c r="L11" s="4">
         <v>30</v>
       </c>
-      <c r="M11" s="5">
-        <v>7.2549999999999999</v>
+      <c r="M11" s="6">
+        <v>7255</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1368,11 +1384,11 @@
       <c r="G12" s="4">
         <v>498</v>
       </c>
-      <c r="H12" s="4">
-        <v>3.0859999999999999</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2.52</v>
+      <c r="H12" s="5">
+        <v>3086</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2520</v>
       </c>
       <c r="J12" s="4">
         <v>468</v>
@@ -1383,8 +1399,8 @@
       <c r="L12" s="4">
         <v>27</v>
       </c>
-      <c r="M12" s="5">
-        <v>7.6740000000000004</v>
+      <c r="M12" s="6">
+        <v>7674</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1407,11 +1423,11 @@
       <c r="G13" s="4">
         <v>692</v>
       </c>
-      <c r="H13" s="4">
-        <v>2.419</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.484</v>
+      <c r="H13" s="5">
+        <v>2419</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2484</v>
       </c>
       <c r="J13" s="4">
         <v>425</v>
@@ -1422,8 +1438,8 @@
       <c r="L13" s="4">
         <v>27</v>
       </c>
-      <c r="M13" s="5">
-        <v>7.8049999999999997</v>
+      <c r="M13" s="6">
+        <v>7805</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1445,14 +1461,14 @@
       <c r="F14" s="4">
         <v>900</v>
       </c>
-      <c r="G14" s="4">
-        <v>1.026</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2.1059999999999999</v>
+      <c r="G14" s="5">
+        <v>1026</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3192</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2106</v>
       </c>
       <c r="J14" s="4">
         <v>408</v>
@@ -1463,8 +1479,8 @@
       <c r="L14" s="4">
         <v>35</v>
       </c>
-      <c r="M14" s="5">
-        <v>8.327</v>
+      <c r="M14" s="6">
+        <v>8327</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1478,20 +1494,20 @@
       <c r="D15" s="4">
         <v>38</v>
       </c>
-      <c r="E15" s="4">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.179</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2.5129999999999999</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2.0489999999999999</v>
+      <c r="E15" s="5">
+        <v>1289</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1172</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1179</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2513</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2049</v>
       </c>
       <c r="J15" s="4">
         <v>379</v>
@@ -1502,8 +1518,8 @@
       <c r="L15" s="4">
         <v>37</v>
       </c>
-      <c r="M15" s="5">
-        <v>8.7940000000000005</v>
+      <c r="M15" s="6">
+        <v>8794</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1522,17 +1538,17 @@
       <c r="E16" s="4">
         <v>622</v>
       </c>
-      <c r="F16" s="4">
-        <v>1.177</v>
+      <c r="F16" s="5">
+        <v>1177</v>
       </c>
       <c r="G16" s="4">
         <v>912</v>
       </c>
-      <c r="H16" s="4">
-        <v>2.61</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.6379999999999999</v>
+      <c r="H16" s="5">
+        <v>2610</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1638</v>
       </c>
       <c r="J16" s="4">
         <v>288</v>
@@ -1543,8 +1559,8 @@
       <c r="L16" s="4">
         <v>31</v>
       </c>
-      <c r="M16" s="5">
-        <v>7.4340000000000002</v>
+      <c r="M16" s="6">
+        <v>7434</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1558,20 +1574,20 @@
       <c r="D17" s="4">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.5980000000000001</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1.796</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.294</v>
+      <c r="E17" s="5">
+        <v>1614</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1598</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1116</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1796</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1294</v>
       </c>
       <c r="J17" s="4">
         <v>164</v>
@@ -1582,8 +1598,8 @@
       <c r="L17" s="4">
         <v>42</v>
       </c>
-      <c r="M17" s="5">
-        <v>7.77</v>
+      <c r="M17" s="6">
+        <v>7770</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1602,17 +1618,17 @@
       <c r="E18" s="4">
         <v>751</v>
       </c>
-      <c r="F18" s="4">
-        <v>1.248</v>
+      <c r="F18" s="5">
+        <v>1248</v>
       </c>
       <c r="G18" s="4">
         <v>940</v>
       </c>
-      <c r="H18" s="4">
-        <v>1.8640000000000001</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.33</v>
+      <c r="H18" s="5">
+        <v>1864</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1330</v>
       </c>
       <c r="J18" s="4">
         <v>144</v>
@@ -1623,8 +1639,8 @@
       <c r="L18" s="4">
         <v>47</v>
       </c>
-      <c r="M18" s="5">
-        <v>6.4630000000000001</v>
+      <c r="M18" s="6">
+        <v>6463</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1638,17 +1654,17 @@
       <c r="D19" s="4">
         <v>40</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.986</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.4279999999999999</v>
+      <c r="E19" s="5">
+        <v>1986</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1428</v>
       </c>
       <c r="G19" s="4">
         <v>960</v>
       </c>
-      <c r="H19" s="4">
-        <v>1.2350000000000001</v>
+      <c r="H19" s="5">
+        <v>1235</v>
       </c>
       <c r="I19" s="4">
         <v>800</v>
@@ -1662,8 +1678,8 @@
       <c r="L19" s="4">
         <v>53</v>
       </c>
-      <c r="M19" s="5">
-        <v>6.6859999999999999</v>
+      <c r="M19" s="6">
+        <v>6686</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1679,17 +1695,17 @@
       <c r="D20" s="4">
         <v>9</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.151</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1.004</v>
+      <c r="E20" s="5">
+        <v>1151</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1004</v>
       </c>
       <c r="G20" s="4">
         <v>825</v>
       </c>
-      <c r="H20" s="4">
-        <v>1.407</v>
+      <c r="H20" s="5">
+        <v>1407</v>
       </c>
       <c r="I20" s="4">
         <v>914</v>
@@ -1703,8 +1719,8 @@
       <c r="L20" s="4">
         <v>47</v>
       </c>
-      <c r="M20" s="5">
-        <v>5.5250000000000004</v>
+      <c r="M20" s="6">
+        <v>5525</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1718,8 +1734,8 @@
       <c r="D21" s="4">
         <v>111</v>
       </c>
-      <c r="E21" s="4">
-        <v>2.5110000000000001</v>
+      <c r="E21" s="5">
+        <v>2511</v>
       </c>
       <c r="F21" s="4">
         <v>929</v>
@@ -1742,8 +1758,8 @@
       <c r="L21" s="4">
         <v>60</v>
       </c>
-      <c r="M21" s="5">
-        <v>5.8010000000000002</v>
+      <c r="M21" s="6">
+        <v>5801</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1759,8 +1775,8 @@
       <c r="D22" s="4">
         <v>19</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.58</v>
+      <c r="E22" s="5">
+        <v>1580</v>
       </c>
       <c r="F22" s="4">
         <v>521</v>
@@ -1768,8 +1784,8 @@
       <c r="G22" s="4">
         <v>622</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.1279999999999999</v>
+      <c r="H22" s="5">
+        <v>1128</v>
       </c>
       <c r="I22" s="4">
         <v>698</v>
@@ -1783,8 +1799,8 @@
       <c r="L22" s="4">
         <v>53</v>
       </c>
-      <c r="M22" s="5">
-        <v>4.7229999999999999</v>
+      <c r="M22" s="6">
+        <v>4723</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1798,8 +1814,8 @@
       <c r="D23" s="4">
         <v>191</v>
       </c>
-      <c r="E23" s="4">
-        <v>2.9529999999999998</v>
+      <c r="E23" s="5">
+        <v>2953</v>
       </c>
       <c r="F23" s="4">
         <v>453</v>
@@ -1822,8 +1838,8 @@
       <c r="L23" s="4">
         <v>50</v>
       </c>
-      <c r="M23" s="5">
-        <v>5.2</v>
+      <c r="M23" s="6">
+        <v>5200</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1839,8 +1855,8 @@
       <c r="D24" s="4">
         <v>25</v>
       </c>
-      <c r="E24" s="4">
-        <v>1.746</v>
+      <c r="E24" s="5">
+        <v>1746</v>
       </c>
       <c r="F24" s="4">
         <v>219</v>
@@ -1863,8 +1879,8 @@
       <c r="L24" s="4">
         <v>39</v>
       </c>
-      <c r="M24" s="5">
-        <v>3.9790000000000001</v>
+      <c r="M24" s="6">
+        <v>3979</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1878,8 +1894,8 @@
       <c r="D25" s="4">
         <v>353</v>
       </c>
-      <c r="E25" s="4">
-        <v>2.6680000000000001</v>
+      <c r="E25" s="5">
+        <v>2668</v>
       </c>
       <c r="F25" s="4">
         <v>164</v>
@@ -1902,8 +1918,8 @@
       <c r="L25" s="4">
         <v>47</v>
       </c>
-      <c r="M25" s="5">
-        <v>4.3929999999999998</v>
+      <c r="M25" s="6">
+        <v>4393</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1919,8 +1935,8 @@
       <c r="D26" s="4">
         <v>61</v>
       </c>
-      <c r="E26" s="4">
-        <v>1.4950000000000001</v>
+      <c r="E26" s="5">
+        <v>1495</v>
       </c>
       <c r="F26" s="4">
         <v>71</v>
@@ -1943,8 +1959,8 @@
       <c r="L26" s="4">
         <v>34</v>
       </c>
-      <c r="M26" s="5">
-        <v>2.79</v>
+      <c r="M26" s="6">
+        <v>2790</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1958,8 +1974,8 @@
       <c r="D27" s="4">
         <v>429</v>
       </c>
-      <c r="E27" s="4">
-        <v>1.9490000000000001</v>
+      <c r="E27" s="5">
+        <v>1949</v>
       </c>
       <c r="F27" s="4">
         <v>39</v>
@@ -1982,8 +1998,8 @@
       <c r="L27" s="4">
         <v>49</v>
       </c>
-      <c r="M27" s="5">
-        <v>3.3079999999999998</v>
+      <c r="M27" s="6">
+        <v>3308</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1999,8 +2015,8 @@
       <c r="D28" s="4">
         <v>291</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.9850000000000001</v>
+      <c r="E28" s="5">
+        <v>1985</v>
       </c>
       <c r="F28" s="4">
         <v>25</v>
@@ -2023,8 +2039,8 @@
       <c r="L28" s="4">
         <v>44</v>
       </c>
-      <c r="M28" s="5">
-        <v>3.278</v>
+      <c r="M28" s="6">
+        <v>3278</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2032,14 +2048,14 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.056</v>
+      <c r="C29" s="5">
+        <v>1056</v>
       </c>
       <c r="D29" s="4">
         <v>950</v>
       </c>
-      <c r="E29" s="4">
-        <v>2.3479999999999999</v>
+      <c r="E29" s="5">
+        <v>2348</v>
       </c>
       <c r="F29" s="4">
         <v>11</v>
@@ -2062,54 +2078,54 @@
       <c r="L29" s="4">
         <v>48</v>
       </c>
-      <c r="M29" s="5">
-        <v>4.7949999999999999</v>
+      <c r="M29" s="6">
+        <v>4795</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>2.242</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2.7770000000000001</v>
-      </c>
-      <c r="E30" s="5">
-        <v>28.141999999999999</v>
-      </c>
-      <c r="F30" s="5">
-        <v>13.996</v>
-      </c>
-      <c r="G30" s="5">
-        <v>16.283999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>48.122999999999998</v>
-      </c>
-      <c r="I30" s="5">
-        <v>35.634999999999998</v>
-      </c>
-      <c r="J30" s="5">
-        <v>4.4109999999999996</v>
-      </c>
-      <c r="K30" s="5">
-        <v>1.173</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>2242</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2777</v>
+      </c>
+      <c r="E30" s="6">
+        <v>28142</v>
+      </c>
+      <c r="F30" s="6">
+        <v>13996</v>
+      </c>
+      <c r="G30" s="6">
+        <v>16284</v>
+      </c>
+      <c r="H30" s="6">
+        <v>48123</v>
+      </c>
+      <c r="I30" s="6">
+        <v>35635</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4411</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1173</v>
+      </c>
+      <c r="L30" s="8">
         <v>987</v>
       </c>
-      <c r="M30" s="5">
-        <v>153.77000000000001</v>
+      <c r="M30" s="6">
+        <v>153770</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2181,7 +2197,7 @@
       <c r="L32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="8">
         <v>201</v>
       </c>
     </row>
@@ -2220,7 +2236,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="8">
         <v>218</v>
       </c>
     </row>
@@ -2261,7 +2277,7 @@
       <c r="L34" s="4">
         <v>2</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="8">
         <v>177</v>
       </c>
     </row>
@@ -2300,7 +2316,7 @@
       <c r="L35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="8">
         <v>133</v>
       </c>
     </row>
@@ -2341,7 +2357,7 @@
       <c r="L36" s="4">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="8">
         <v>127</v>
       </c>
     </row>
@@ -2380,7 +2396,7 @@
       <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="8">
         <v>100</v>
       </c>
     </row>
@@ -2421,7 +2437,7 @@
       <c r="L38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="8">
         <v>142</v>
       </c>
     </row>
@@ -2460,7 +2476,7 @@
       <c r="L39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="8">
         <v>93</v>
       </c>
     </row>
@@ -2501,7 +2517,7 @@
       <c r="L40" s="4">
         <v>1</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="8">
         <v>158</v>
       </c>
     </row>
@@ -2540,7 +2556,7 @@
       <c r="L41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="8">
         <v>103</v>
       </c>
     </row>
@@ -2581,7 +2597,7 @@
       <c r="L42" s="4">
         <v>2</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="8">
         <v>199</v>
       </c>
     </row>
@@ -2620,7 +2636,7 @@
       <c r="L43" s="4">
         <v>1</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="8">
         <v>143</v>
       </c>
     </row>
@@ -2661,7 +2677,7 @@
       <c r="L44" s="4">
         <v>3</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="8">
         <v>225</v>
       </c>
     </row>
@@ -2700,7 +2716,7 @@
       <c r="L45" s="4">
         <v>3</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="8">
         <v>231</v>
       </c>
     </row>
@@ -2741,7 +2757,7 @@
       <c r="L46" s="4">
         <v>3</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="8">
         <v>229</v>
       </c>
     </row>
@@ -2780,7 +2796,7 @@
       <c r="L47" s="4">
         <v>1</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="8">
         <v>242</v>
       </c>
     </row>
@@ -2821,7 +2837,7 @@
       <c r="L48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="8">
         <v>339</v>
       </c>
     </row>
@@ -2860,7 +2876,7 @@
       <c r="L49" s="4">
         <v>4</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="8">
         <v>353</v>
       </c>
     </row>
@@ -2901,7 +2917,7 @@
       <c r="L50" s="4">
         <v>3</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="8">
         <v>360</v>
       </c>
     </row>
@@ -2940,7 +2956,7 @@
       <c r="L51" s="4">
         <v>3</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="8">
         <v>398</v>
       </c>
     </row>
@@ -2981,7 +2997,7 @@
       <c r="L52" s="4">
         <v>2</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>245</v>
       </c>
     </row>
@@ -3020,7 +3036,7 @@
       <c r="L53" s="4">
         <v>4</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>334</v>
       </c>
     </row>
@@ -3061,7 +3077,7 @@
       <c r="L54" s="4">
         <v>5</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>335</v>
       </c>
     </row>
@@ -3100,7 +3116,7 @@
       <c r="L55" s="4">
         <v>7</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="8">
         <v>554</v>
       </c>
     </row>
@@ -3108,46 +3124,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8">
         <v>463</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="8">
         <v>421</v>
       </c>
-      <c r="E56" s="5">
-        <v>2.5710000000000002</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>2571</v>
+      </c>
+      <c r="F56" s="8">
         <v>358</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="8">
         <v>539</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="8">
         <v>769</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="8">
         <v>442</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="8">
         <v>23</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>6</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>47</v>
       </c>
-      <c r="M56" s="5">
-        <v>5.6390000000000002</v>
+      <c r="M56" s="6">
+        <v>5639</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3204,8 +3220,8 @@
       <c r="G58" s="4">
         <v>242</v>
       </c>
-      <c r="H58" s="4">
-        <v>1.002</v>
+      <c r="H58" s="5">
+        <v>1002</v>
       </c>
       <c r="I58" s="4">
         <v>208</v>
@@ -3219,8 +3235,8 @@
       <c r="L58" s="4">
         <v>10</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.464</v>
+      <c r="M58" s="6">
+        <v>1464</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3258,8 +3274,8 @@
       <c r="L59" s="4">
         <v>9</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.448</v>
+      <c r="M59" s="6">
+        <v>1448</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3299,8 +3315,8 @@
       <c r="L60" s="4">
         <v>10</v>
       </c>
-      <c r="M60" s="5">
-        <v>1.101</v>
+      <c r="M60" s="6">
+        <v>1101</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3338,8 +3354,8 @@
       <c r="L61" s="4">
         <v>9</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.0649999999999999</v>
+      <c r="M61" s="6">
+        <v>1065</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3379,8 +3395,8 @@
       <c r="L62" s="4">
         <v>9</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.036</v>
+      <c r="M62" s="6">
+        <v>1036</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3418,7 +3434,7 @@
       <c r="L63" s="4">
         <v>7</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>952</v>
       </c>
     </row>
@@ -3459,8 +3475,8 @@
       <c r="L64" s="4">
         <v>9</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.079</v>
+      <c r="M64" s="6">
+        <v>1079</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3498,7 +3514,7 @@
       <c r="L65" s="4">
         <v>2</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>969</v>
       </c>
     </row>
@@ -3539,8 +3555,8 @@
       <c r="L66" s="4">
         <v>4</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.1930000000000001</v>
+      <c r="M66" s="6">
+        <v>1193</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3578,8 +3594,8 @@
       <c r="L67" s="4">
         <v>7</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.02</v>
+      <c r="M67" s="6">
+        <v>1020</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3619,8 +3635,8 @@
       <c r="L68" s="4">
         <v>5</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.1040000000000001</v>
+      <c r="M68" s="6">
+        <v>1104</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3658,8 +3674,8 @@
       <c r="L69" s="4">
         <v>2</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.032</v>
+      <c r="M69" s="6">
+        <v>1032</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3699,8 +3715,8 @@
       <c r="L70" s="4">
         <v>7</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.1100000000000001</v>
+      <c r="M70" s="6">
+        <v>1110</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3738,8 +3754,8 @@
       <c r="L71" s="4">
         <v>10</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.119</v>
+      <c r="M71" s="6">
+        <v>1119</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3779,8 +3795,8 @@
       <c r="L72" s="4">
         <v>9</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.002</v>
+      <c r="M72" s="6">
+        <v>1002</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3818,8 +3834,8 @@
       <c r="L73" s="4">
         <v>9</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.075</v>
+      <c r="M73" s="6">
+        <v>1075</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3859,8 +3875,8 @@
       <c r="L74" s="4">
         <v>10</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M74" s="6">
+        <v>1068</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3898,8 +3914,8 @@
       <c r="L75" s="4">
         <v>3</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.1419999999999999</v>
+      <c r="M75" s="6">
+        <v>1142</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3939,8 +3955,8 @@
       <c r="L76" s="4">
         <v>5</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.0069999999999999</v>
+      <c r="M76" s="6">
+        <v>1007</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3978,8 +3994,8 @@
       <c r="L77" s="4">
         <v>9</v>
       </c>
-      <c r="M77" s="5">
-        <v>1.1399999999999999</v>
+      <c r="M77" s="6">
+        <v>1140</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4019,7 +4035,7 @@
       <c r="L78" s="4">
         <v>7</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>809</v>
       </c>
     </row>
@@ -4058,7 +4074,7 @@
       <c r="L79" s="4">
         <v>15</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>988</v>
       </c>
     </row>
@@ -4099,8 +4115,8 @@
       <c r="L80" s="4">
         <v>22</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.08</v>
+      <c r="M80" s="6">
+        <v>1080</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4138,54 +4154,54 @@
       <c r="L81" s="4">
         <v>16</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.4470000000000001</v>
+      <c r="M81" s="6">
+        <v>1447</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.117</v>
-      </c>
-      <c r="D82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
+        <v>1117</v>
+      </c>
+      <c r="D82" s="8">
         <v>982</v>
       </c>
-      <c r="E82" s="5">
-        <v>8.641</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2.1190000000000002</v>
-      </c>
-      <c r="G82" s="5">
-        <v>3.097</v>
-      </c>
-      <c r="H82" s="5">
-        <v>6.306</v>
-      </c>
-      <c r="I82" s="5">
-        <v>3.6659999999999999</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="E82" s="6">
+        <v>8641</v>
+      </c>
+      <c r="F82" s="6">
+        <v>2119</v>
+      </c>
+      <c r="G82" s="6">
+        <v>3097</v>
+      </c>
+      <c r="H82" s="6">
+        <v>6306</v>
+      </c>
+      <c r="I82" s="6">
+        <v>3666</v>
+      </c>
+      <c r="J82" s="8">
         <v>289</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>28</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>205</v>
       </c>
-      <c r="M82" s="5">
-        <v>26.45</v>
+      <c r="M82" s="6">
+        <v>26450</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4257,7 +4273,7 @@
       <c r="L84" s="4">
         <v>2</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="8">
         <v>575</v>
       </c>
     </row>
@@ -4296,7 +4312,7 @@
       <c r="L85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="8">
         <v>545</v>
       </c>
     </row>
@@ -4337,7 +4353,7 @@
       <c r="L86" s="4">
         <v>1</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="8">
         <v>458</v>
       </c>
     </row>
@@ -4376,7 +4392,7 @@
       <c r="L87" s="4">
         <v>2</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="8">
         <v>366</v>
       </c>
     </row>
@@ -4417,7 +4433,7 @@
       <c r="L88" s="4">
         <v>1</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="8">
         <v>451</v>
       </c>
     </row>
@@ -4456,7 +4472,7 @@
       <c r="L89" s="4">
         <v>1</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="8">
         <v>374</v>
       </c>
     </row>
@@ -4497,7 +4513,7 @@
       <c r="L90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="8">
         <v>479</v>
       </c>
     </row>
@@ -4536,7 +4552,7 @@
       <c r="L91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="8">
         <v>407</v>
       </c>
     </row>
@@ -4577,7 +4593,7 @@
       <c r="L92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="8">
         <v>477</v>
       </c>
     </row>
@@ -4616,7 +4632,7 @@
       <c r="L93" s="4">
         <v>2</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="8">
         <v>436</v>
       </c>
     </row>
@@ -4657,7 +4673,7 @@
       <c r="L94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="8">
         <v>497</v>
       </c>
     </row>
@@ -4696,7 +4712,7 @@
       <c r="L95" s="4">
         <v>1</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="8">
         <v>411</v>
       </c>
     </row>
@@ -4737,7 +4753,7 @@
       <c r="L96" s="4">
         <v>1</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="8">
         <v>403</v>
       </c>
     </row>
@@ -4776,7 +4792,7 @@
       <c r="L97" s="4">
         <v>1</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="8">
         <v>468</v>
       </c>
     </row>
@@ -4817,7 +4833,7 @@
       <c r="L98" s="4">
         <v>3</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="8">
         <v>445</v>
       </c>
     </row>
@@ -4856,7 +4872,7 @@
       <c r="L99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="8">
         <v>480</v>
       </c>
     </row>
@@ -4897,7 +4913,7 @@
       <c r="L100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="8">
         <v>467</v>
       </c>
     </row>
@@ -4936,7 +4952,7 @@
       <c r="L101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="8">
         <v>539</v>
       </c>
     </row>
@@ -4977,7 +4993,7 @@
       <c r="L102" s="4">
         <v>1</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="8">
         <v>510</v>
       </c>
     </row>
@@ -5016,7 +5032,7 @@
       <c r="L103" s="4">
         <v>2</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="8">
         <v>527</v>
       </c>
     </row>
@@ -5057,7 +5073,7 @@
       <c r="L104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="8">
         <v>366</v>
       </c>
     </row>
@@ -5096,7 +5112,7 @@
       <c r="L105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="8">
         <v>440</v>
       </c>
     </row>
@@ -5137,7 +5153,7 @@
       <c r="L106" s="4">
         <v>1</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="8">
         <v>659</v>
       </c>
     </row>
@@ -5176,7 +5192,7 @@
       <c r="L107" s="4">
         <v>4</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="8">
         <v>872</v>
       </c>
     </row>
@@ -5184,46 +5200,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
         <v>597</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="8">
         <v>694</v>
       </c>
-      <c r="E108" s="5">
-        <v>4.3360000000000003</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108" s="6">
+        <v>4336</v>
+      </c>
+      <c r="F108" s="8">
         <v>956</v>
       </c>
-      <c r="G108" s="5">
-        <v>1.3120000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="G108" s="6">
+        <v>1312</v>
+      </c>
+      <c r="H108" s="6">
+        <v>2346</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1279</v>
+      </c>
+      <c r="J108" s="8">
         <v>106</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="8">
         <v>3</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="8">
         <v>23</v>
       </c>
-      <c r="M108" s="5">
-        <v>11.651999999999999</v>
+      <c r="M108" s="6">
+        <v>11652</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5248,7 +5264,7 @@
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L109" s="2" t="s">
@@ -5289,13 +5305,13 @@
       <c r="J110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K110" s="4" t="s">
-        <v>15</v>
+      <c r="K110" s="4">
+        <v>0</v>
       </c>
       <c r="L110" s="4">
         <v>2</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="8">
         <v>126</v>
       </c>
     </row>
@@ -5328,13 +5344,13 @@
       <c r="J111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K111" s="4" t="s">
-        <v>15</v>
+      <c r="K111" s="4">
+        <v>0</v>
       </c>
       <c r="L111" s="4">
         <v>2</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="8">
         <v>102</v>
       </c>
     </row>
@@ -5369,13 +5385,13 @@
       <c r="J112" s="4">
         <v>4</v>
       </c>
-      <c r="K112" s="4" t="s">
-        <v>15</v>
+      <c r="K112" s="4">
+        <v>0</v>
       </c>
       <c r="L112" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="8">
         <v>118</v>
       </c>
     </row>
@@ -5408,13 +5424,13 @@
       <c r="J113" s="4">
         <v>2</v>
       </c>
-      <c r="K113" s="4" t="s">
-        <v>15</v>
+      <c r="K113" s="4">
+        <v>0</v>
       </c>
       <c r="L113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="8">
         <v>78</v>
       </c>
     </row>
@@ -5449,13 +5465,13 @@
       <c r="J114" s="4">
         <v>4</v>
       </c>
-      <c r="K114" s="4" t="s">
-        <v>15</v>
+      <c r="K114" s="4">
+        <v>0</v>
       </c>
       <c r="L114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="8">
         <v>73</v>
       </c>
     </row>
@@ -5488,13 +5504,13 @@
       <c r="J115" s="4">
         <v>1</v>
       </c>
-      <c r="K115" s="4" t="s">
-        <v>15</v>
+      <c r="K115" s="4">
+        <v>0</v>
       </c>
       <c r="L115" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="8">
         <v>36</v>
       </c>
     </row>
@@ -5529,13 +5545,13 @@
       <c r="J116" s="4">
         <v>3</v>
       </c>
-      <c r="K116" s="4" t="s">
-        <v>15</v>
+      <c r="K116" s="4">
+        <v>0</v>
       </c>
       <c r="L116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="8">
         <v>62</v>
       </c>
     </row>
@@ -5568,13 +5584,13 @@
       <c r="J117" s="4">
         <v>1</v>
       </c>
-      <c r="K117" s="4" t="s">
-        <v>15</v>
+      <c r="K117" s="4">
+        <v>0</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="8">
         <v>37</v>
       </c>
     </row>
@@ -5609,13 +5625,13 @@
       <c r="J118" s="4">
         <v>4</v>
       </c>
-      <c r="K118" s="4" t="s">
-        <v>15</v>
+      <c r="K118" s="4">
+        <v>0</v>
       </c>
       <c r="L118" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="8">
         <v>69</v>
       </c>
     </row>
@@ -5648,13 +5664,13 @@
       <c r="J119" s="4">
         <v>2</v>
       </c>
-      <c r="K119" s="4" t="s">
-        <v>15</v>
+      <c r="K119" s="4">
+        <v>0</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="8">
         <v>59</v>
       </c>
     </row>
@@ -5689,13 +5705,13 @@
       <c r="J120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K120" s="4" t="s">
-        <v>15</v>
+      <c r="K120" s="4">
+        <v>0</v>
       </c>
       <c r="L120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="8">
         <v>88</v>
       </c>
     </row>
@@ -5728,13 +5744,13 @@
       <c r="J121" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K121" s="4" t="s">
-        <v>15</v>
+      <c r="K121" s="4">
+        <v>0</v>
       </c>
       <c r="L121" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="8">
         <v>79</v>
       </c>
     </row>
@@ -5769,13 +5785,13 @@
       <c r="J122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K122" s="4" t="s">
-        <v>15</v>
+      <c r="K122" s="4">
+        <v>0</v>
       </c>
       <c r="L122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="8">
         <v>111</v>
       </c>
     </row>
@@ -5808,13 +5824,13 @@
       <c r="J123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K123" s="4" t="s">
-        <v>15</v>
+      <c r="K123" s="4">
+        <v>0</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="8">
         <v>92</v>
       </c>
     </row>
@@ -5849,13 +5865,13 @@
       <c r="J124" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K124" s="4" t="s">
-        <v>15</v>
+      <c r="K124" s="4">
+        <v>0</v>
       </c>
       <c r="L124" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="8">
         <v>114</v>
       </c>
     </row>
@@ -5888,13 +5904,13 @@
       <c r="J125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K125" s="4" t="s">
-        <v>15</v>
+      <c r="K125" s="4">
+        <v>0</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>112</v>
       </c>
     </row>
@@ -5929,13 +5945,13 @@
       <c r="J126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K126" s="4" t="s">
-        <v>15</v>
+      <c r="K126" s="4">
+        <v>0</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>128</v>
       </c>
     </row>
@@ -5968,13 +5984,13 @@
       <c r="J127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K127" s="4" t="s">
-        <v>15</v>
+      <c r="K127" s="4">
+        <v>0</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>119</v>
       </c>
     </row>
@@ -6009,13 +6025,13 @@
       <c r="J128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K128" s="4" t="s">
-        <v>15</v>
+      <c r="K128" s="4">
+        <v>0</v>
       </c>
       <c r="L128" s="4">
         <v>1</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>123</v>
       </c>
     </row>
@@ -6048,13 +6064,13 @@
       <c r="J129" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K129" s="4" t="s">
-        <v>15</v>
+      <c r="K129" s="4">
+        <v>0</v>
       </c>
       <c r="L129" s="4">
         <v>1</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>131</v>
       </c>
     </row>
@@ -6089,13 +6105,13 @@
       <c r="J130" s="4">
         <v>1</v>
       </c>
-      <c r="K130" s="4" t="s">
-        <v>15</v>
+      <c r="K130" s="4">
+        <v>0</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>96</v>
       </c>
     </row>
@@ -6128,13 +6144,13 @@
       <c r="J131" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K131" s="4" t="s">
-        <v>15</v>
+      <c r="K131" s="4">
+        <v>0</v>
       </c>
       <c r="L131" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>133</v>
       </c>
     </row>
@@ -6169,13 +6185,13 @@
       <c r="J132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K132" s="4" t="s">
-        <v>15</v>
+      <c r="K132" s="4">
+        <v>0</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>172</v>
       </c>
     </row>
@@ -6208,13 +6224,13 @@
       <c r="J133" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K133" s="4" t="s">
-        <v>15</v>
+      <c r="K133" s="4">
+        <v>0</v>
       </c>
       <c r="L133" s="4">
         <v>2</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>288</v>
       </c>
     </row>
@@ -6222,43 +6238,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8">
         <v>207</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="8">
         <v>182</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="8">
         <v>864</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="8">
         <v>147</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="8">
         <v>269</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="8">
         <v>523</v>
       </c>
-      <c r="I134" s="5">
+      <c r="I134" s="8">
         <v>324</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="8">
         <v>22</v>
       </c>
-      <c r="L134" s="5">
+      <c r="K134" s="4">
+        <v>0</v>
+      </c>
+      <c r="L134" s="8">
         <v>8</v>
       </c>
-      <c r="M134" s="5">
-        <v>2.5459999999999998</v>
+      <c r="M134" s="6">
+        <v>2546</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6330,7 +6349,7 @@
       <c r="L136" s="4">
         <v>6</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="8">
         <v>476</v>
       </c>
     </row>
@@ -6369,7 +6388,7 @@
       <c r="L137" s="4">
         <v>1</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="8">
         <v>411</v>
       </c>
     </row>
@@ -6410,7 +6429,7 @@
       <c r="L138" s="4">
         <v>3</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="8">
         <v>362</v>
       </c>
     </row>
@@ -6449,7 +6468,7 @@
       <c r="L139" s="4">
         <v>2</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="8">
         <v>300</v>
       </c>
     </row>
@@ -6490,7 +6509,7 @@
       <c r="L140" s="4">
         <v>2</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="8">
         <v>342</v>
       </c>
     </row>
@@ -6529,7 +6548,7 @@
       <c r="L141" s="4">
         <v>2</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="8">
         <v>284</v>
       </c>
     </row>
@@ -6570,7 +6589,7 @@
       <c r="L142" s="4">
         <v>4</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="8">
         <v>399</v>
       </c>
     </row>
@@ -6609,7 +6628,7 @@
       <c r="L143" s="4">
         <v>1</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="8">
         <v>311</v>
       </c>
     </row>
@@ -6650,7 +6669,7 @@
       <c r="L144" s="4">
         <v>1</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="8">
         <v>356</v>
       </c>
     </row>
@@ -6689,7 +6708,7 @@
       <c r="L145" s="4">
         <v>3</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="8">
         <v>296</v>
       </c>
     </row>
@@ -6730,7 +6749,7 @@
       <c r="L146" s="4">
         <v>5</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="8">
         <v>376</v>
       </c>
     </row>
@@ -6769,7 +6788,7 @@
       <c r="L147" s="4">
         <v>4</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="8">
         <v>328</v>
       </c>
     </row>
@@ -6810,7 +6829,7 @@
       <c r="L148" s="4">
         <v>5</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="8">
         <v>438</v>
       </c>
     </row>
@@ -6849,7 +6868,7 @@
       <c r="L149" s="4">
         <v>2</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="8">
         <v>463</v>
       </c>
     </row>
@@ -6890,7 +6909,7 @@
       <c r="L150" s="4">
         <v>6</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="8">
         <v>536</v>
       </c>
     </row>
@@ -6929,7 +6948,7 @@
       <c r="L151" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="8">
         <v>562</v>
       </c>
     </row>
@@ -6970,7 +6989,7 @@
       <c r="L152" s="4">
         <v>3</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="8">
         <v>611</v>
       </c>
     </row>
@@ -7009,7 +7028,7 @@
       <c r="L153" s="4">
         <v>1</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="8">
         <v>633</v>
       </c>
     </row>
@@ -7050,7 +7069,7 @@
       <c r="L154" s="4">
         <v>3</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="8">
         <v>650</v>
       </c>
     </row>
@@ -7089,7 +7108,7 @@
       <c r="L155" s="4">
         <v>4</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="8">
         <v>608</v>
       </c>
     </row>
@@ -7130,7 +7149,7 @@
       <c r="L156" s="4">
         <v>9</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>498</v>
       </c>
     </row>
@@ -7169,7 +7188,7 @@
       <c r="L157" s="4">
         <v>7</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="8">
         <v>539</v>
       </c>
     </row>
@@ -7210,7 +7229,7 @@
       <c r="L158" s="4">
         <v>10</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="8">
         <v>696</v>
       </c>
     </row>
@@ -7249,7 +7268,7 @@
       <c r="L159" s="4">
         <v>18</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="8">
         <v>945</v>
       </c>
     </row>
@@ -7257,46 +7276,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="8">
         <v>347</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="8">
         <v>375</v>
       </c>
-      <c r="E160" s="5">
-        <v>4.4320000000000004</v>
-      </c>
-      <c r="F160" s="5">
+      <c r="E160" s="6">
+        <v>4432</v>
+      </c>
+      <c r="F160" s="8">
         <v>982</v>
       </c>
-      <c r="G160" s="5">
-        <v>1.36</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.359</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.361</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="G160" s="6">
+        <v>1360</v>
+      </c>
+      <c r="H160" s="6">
+        <v>2359</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1361</v>
+      </c>
+      <c r="J160" s="8">
         <v>89</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>13</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>102</v>
       </c>
-      <c r="M160" s="5">
-        <v>11.42</v>
+      <c r="M160" s="6">
+        <v>11420</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7368,7 +7387,7 @@
       <c r="L162" s="4">
         <v>7</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="8">
         <v>797</v>
       </c>
     </row>
@@ -7407,7 +7426,7 @@
       <c r="L163" s="4">
         <v>1</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="8">
         <v>706</v>
       </c>
     </row>
@@ -7448,7 +7467,7 @@
       <c r="L164" s="4">
         <v>4</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="8">
         <v>639</v>
       </c>
     </row>
@@ -7487,7 +7506,7 @@
       <c r="L165" s="4">
         <v>2</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="8">
         <v>517</v>
       </c>
     </row>
@@ -7528,7 +7547,7 @@
       <c r="L166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="8">
         <v>572</v>
       </c>
     </row>
@@ -7567,7 +7586,7 @@
       <c r="L167" s="4">
         <v>2</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="8">
         <v>425</v>
       </c>
     </row>
@@ -7608,7 +7627,7 @@
       <c r="L168" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="8">
         <v>565</v>
       </c>
     </row>
@@ -7647,7 +7666,7 @@
       <c r="L169" s="4">
         <v>3</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="8">
         <v>434</v>
       </c>
     </row>
@@ -7688,7 +7707,7 @@
       <c r="L170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="8">
         <v>551</v>
       </c>
     </row>
@@ -7727,7 +7746,7 @@
       <c r="L171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="8">
         <v>474</v>
       </c>
     </row>
@@ -7768,7 +7787,7 @@
       <c r="L172" s="4">
         <v>2</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="8">
         <v>582</v>
       </c>
     </row>
@@ -7807,7 +7826,7 @@
       <c r="L173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="8">
         <v>478</v>
       </c>
     </row>
@@ -7848,7 +7867,7 @@
       <c r="L174" s="4">
         <v>2</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="8">
         <v>630</v>
       </c>
     </row>
@@ -7887,7 +7906,7 @@
       <c r="L175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="8">
         <v>670</v>
       </c>
     </row>
@@ -7928,7 +7947,7 @@
       <c r="L176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="8">
         <v>669</v>
       </c>
     </row>
@@ -7967,7 +7986,7 @@
       <c r="L177" s="4">
         <v>1</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="8">
         <v>670</v>
       </c>
     </row>
@@ -8008,7 +8027,7 @@
       <c r="L178" s="4">
         <v>2</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="8">
         <v>718</v>
       </c>
     </row>
@@ -8047,7 +8066,7 @@
       <c r="L179" s="4">
         <v>2</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="8">
         <v>739</v>
       </c>
     </row>
@@ -8088,7 +8107,7 @@
       <c r="L180" s="4">
         <v>3</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="8">
         <v>644</v>
       </c>
     </row>
@@ -8127,7 +8146,7 @@
       <c r="L181" s="4">
         <v>5</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="8">
         <v>672</v>
       </c>
     </row>
@@ -8168,7 +8187,7 @@
       <c r="L182" s="4">
         <v>3</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>501</v>
       </c>
     </row>
@@ -8207,7 +8226,7 @@
       <c r="L183" s="4">
         <v>2</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="8">
         <v>560</v>
       </c>
     </row>
@@ -8248,7 +8267,7 @@
       <c r="L184" s="4">
         <v>1</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="8">
         <v>714</v>
       </c>
     </row>
@@ -8287,54 +8306,54 @@
       <c r="L185" s="4">
         <v>5</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.038</v>
+      <c r="M185" s="6">
+        <v>1038</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="8">
         <v>520</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="8">
         <v>868</v>
       </c>
-      <c r="E186" s="5">
-        <v>4.8540000000000001</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.5489999999999999</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.085</v>
-      </c>
-      <c r="H186" s="5">
-        <v>3.3690000000000002</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="E186" s="6">
+        <v>4854</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1549</v>
+      </c>
+      <c r="G186" s="6">
+        <v>2085</v>
+      </c>
+      <c r="H186" s="6">
+        <v>3369</v>
+      </c>
+      <c r="I186" s="6">
+        <v>1559</v>
+      </c>
+      <c r="J186" s="8">
         <v>106</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>8</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>47</v>
       </c>
-      <c r="M186" s="5">
-        <v>14.965</v>
+      <c r="M186" s="6">
+        <v>14965</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8406,7 +8425,7 @@
       <c r="L188" s="4">
         <v>1</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="8">
         <v>147</v>
       </c>
     </row>
@@ -8445,7 +8464,7 @@
       <c r="L189" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="8">
         <v>137</v>
       </c>
     </row>
@@ -8486,7 +8505,7 @@
       <c r="L190" s="4">
         <v>1</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="8">
         <v>122</v>
       </c>
     </row>
@@ -8525,7 +8544,7 @@
       <c r="L191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="8">
         <v>93</v>
       </c>
     </row>
@@ -8566,7 +8585,7 @@
       <c r="L192" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="8">
         <v>93</v>
       </c>
     </row>
@@ -8605,7 +8624,7 @@
       <c r="L193" s="4">
         <v>1</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="8">
         <v>78</v>
       </c>
     </row>
@@ -8646,7 +8665,7 @@
       <c r="L194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="8">
         <v>95</v>
       </c>
     </row>
@@ -8685,7 +8704,7 @@
       <c r="L195" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="8">
         <v>81</v>
       </c>
     </row>
@@ -8726,7 +8745,7 @@
       <c r="L196" s="4">
         <v>1</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="8">
         <v>102</v>
       </c>
     </row>
@@ -8765,7 +8784,7 @@
       <c r="L197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="8">
         <v>98</v>
       </c>
     </row>
@@ -8806,7 +8825,7 @@
       <c r="L198" s="4">
         <v>1</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="8">
         <v>121</v>
       </c>
     </row>
@@ -8845,7 +8864,7 @@
       <c r="L199" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="8">
         <v>115</v>
       </c>
     </row>
@@ -8886,7 +8905,7 @@
       <c r="L200" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="8">
         <v>154</v>
       </c>
     </row>
@@ -8925,7 +8944,7 @@
       <c r="L201" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="8">
         <v>148</v>
       </c>
     </row>
@@ -8966,7 +8985,7 @@
       <c r="L202" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="8">
         <v>169</v>
       </c>
     </row>
@@ -9005,7 +9024,7 @@
       <c r="L203" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="8">
         <v>183</v>
       </c>
     </row>
@@ -9046,7 +9065,7 @@
       <c r="L204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="8">
         <v>219</v>
       </c>
     </row>
@@ -9085,7 +9104,7 @@
       <c r="L205" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="8">
         <v>206</v>
       </c>
     </row>
@@ -9126,7 +9145,7 @@
       <c r="L206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="8">
         <v>195</v>
       </c>
     </row>
@@ -9165,7 +9184,7 @@
       <c r="L207" s="4">
         <v>1</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="8">
         <v>221</v>
       </c>
     </row>
@@ -9206,7 +9225,7 @@
       <c r="L208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="8">
         <v>186</v>
       </c>
     </row>
@@ -9245,7 +9264,7 @@
       <c r="L209" s="4">
         <v>1</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="8">
         <v>240</v>
       </c>
     </row>
@@ -9286,7 +9305,7 @@
       <c r="L210" s="4">
         <v>3</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="8">
         <v>329</v>
       </c>
     </row>
@@ -9325,7 +9344,7 @@
       <c r="L211" s="4">
         <v>2</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="8">
         <v>464</v>
       </c>
     </row>
@@ -9333,46 +9352,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="8">
         <v>217</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="8">
         <v>308</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.581</v>
-      </c>
-      <c r="F212" s="5">
+      <c r="E212" s="6">
+        <v>1581</v>
+      </c>
+      <c r="F212" s="8">
         <v>316</v>
       </c>
-      <c r="G212" s="5">
+      <c r="G212" s="8">
         <v>315</v>
       </c>
-      <c r="H212" s="5">
+      <c r="H212" s="8">
         <v>730</v>
       </c>
-      <c r="I212" s="5">
+      <c r="I212" s="8">
         <v>474</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="8">
         <v>38</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="8">
         <v>5</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="8">
         <v>12</v>
       </c>
-      <c r="M212" s="5">
-        <v>3.996</v>
+      <c r="M212" s="6">
+        <v>3996</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9444,7 +9463,7 @@
       <c r="L214" s="4">
         <v>1</v>
       </c>
-      <c r="M214" s="5">
+      <c r="M214" s="8">
         <v>292</v>
       </c>
     </row>
@@ -9483,7 +9502,7 @@
       <c r="L215" s="4">
         <v>1</v>
       </c>
-      <c r="M215" s="5">
+      <c r="M215" s="8">
         <v>282</v>
       </c>
     </row>
@@ -9524,7 +9543,7 @@
       <c r="L216" s="4">
         <v>1</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="8">
         <v>220</v>
       </c>
     </row>
@@ -9563,7 +9582,7 @@
       <c r="L217" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="8">
         <v>190</v>
       </c>
     </row>
@@ -9604,7 +9623,7 @@
       <c r="L218" s="4">
         <v>1</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="8">
         <v>202</v>
       </c>
     </row>
@@ -9643,7 +9662,7 @@
       <c r="L219" s="4">
         <v>1</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="8">
         <v>152</v>
       </c>
     </row>
@@ -9684,7 +9703,7 @@
       <c r="L220" s="4">
         <v>1</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="8">
         <v>177</v>
       </c>
     </row>
@@ -9723,7 +9742,7 @@
       <c r="L221" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="8">
         <v>157</v>
       </c>
     </row>
@@ -9764,7 +9783,7 @@
       <c r="L222" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="8">
         <v>199</v>
       </c>
     </row>
@@ -9803,7 +9822,7 @@
       <c r="L223" s="4">
         <v>1</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="8">
         <v>183</v>
       </c>
     </row>
@@ -9844,7 +9863,7 @@
       <c r="L224" s="4">
         <v>1</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="8">
         <v>199</v>
       </c>
     </row>
@@ -9883,7 +9902,7 @@
       <c r="L225" s="4">
         <v>2</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="8">
         <v>200</v>
       </c>
     </row>
@@ -9924,7 +9943,7 @@
       <c r="L226" s="4">
         <v>4</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="8">
         <v>277</v>
       </c>
     </row>
@@ -9963,7 +9982,7 @@
       <c r="L227" s="4">
         <v>1</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="8">
         <v>247</v>
       </c>
     </row>
@@ -10004,7 +10023,7 @@
       <c r="L228" s="4">
         <v>3</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="8">
         <v>255</v>
       </c>
     </row>
@@ -10043,7 +10062,7 @@
       <c r="L229" s="4">
         <v>1</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="8">
         <v>272</v>
       </c>
     </row>
@@ -10084,7 +10103,7 @@
       <c r="L230" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="8">
         <v>258</v>
       </c>
     </row>
@@ -10123,7 +10142,7 @@
       <c r="L231" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="8">
         <v>280</v>
       </c>
     </row>
@@ -10164,7 +10183,7 @@
       <c r="L232" s="4">
         <v>2</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="8">
         <v>239</v>
       </c>
     </row>
@@ -10203,7 +10222,7 @@
       <c r="L233" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="8">
         <v>259</v>
       </c>
     </row>
@@ -10244,7 +10263,7 @@
       <c r="L234" s="4">
         <v>1</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="8">
         <v>185</v>
       </c>
     </row>
@@ -10283,7 +10302,7 @@
       <c r="L235" s="4">
         <v>1</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="8">
         <v>222</v>
       </c>
     </row>
@@ -10324,7 +10343,7 @@
       <c r="L236" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="8">
         <v>215</v>
       </c>
     </row>
@@ -10363,7 +10382,7 @@
       <c r="L237" s="4">
         <v>2</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="8">
         <v>379</v>
       </c>
     </row>
@@ -10371,39 +10390,49 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="8">
         <v>239</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="8">
         <v>209</v>
       </c>
-      <c r="E238" s="5">
-        <v>1.919</v>
-      </c>
-      <c r="F238" s="5">
+      <c r="E238" s="6">
+        <v>1919</v>
+      </c>
+      <c r="F238" s="8">
         <v>419</v>
       </c>
-      <c r="G238" s="5">
+      <c r="G238" s="8">
         <v>701</v>
       </c>
-      <c r="H238" s="5">
-        <v>1.325</v>
-      </c>
-      <c r="I238" s="5">
+      <c r="H238" s="6">
+        <v>1325</v>
+      </c>
+      <c r="I238" s="8">
         <v>665</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="8">
         <v>36</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>3</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="8">
         <v>25</v>
       </c>
-      <c r="M238" s="5">
-        <v>5.5410000000000004</v>
+      <c r="M238" s="6">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
